--- a/BOM up to date.xlsx
+++ b/BOM up to date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24223"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hiver 2021\projet personnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E224777C-6899-443E-AEB5-DD73BB0860E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1E1770-B80C-4124-B04E-586D77D502F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="124">
   <si>
     <t>Bill of materials</t>
   </si>
@@ -42,7 +42,7 @@
     <t>By Xavier Morneau</t>
   </si>
   <si>
-    <t>Updated on 7 june 2021</t>
+    <t>Updated on 3 july 2021</t>
   </si>
   <si>
     <t>type</t>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/cui-devices/CMT-9605-85T/10326230</t>
+  </si>
+  <si>
+    <t>SMD Button</t>
+  </si>
+  <si>
+    <t>SMD switch push button</t>
+  </si>
+  <si>
+    <t>MJTPSMWBTR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/apem-inc/MJTPSMWBTR/1798006</t>
   </si>
 </sst>
 </file>
@@ -828,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1664,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" ref="H38:H44" si="2">G38*F38</f>
+        <f t="shared" ref="H38:H45" si="2">G38*F38</f>
         <v>5.24</v>
       </c>
     </row>
@@ -1786,6 +1798,30 @@
       <c r="H44" s="18">
         <f t="shared" si="2"/>
         <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45">
+        <v>1.18</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <f t="shared" si="2"/>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -1806,19 +1842,14 @@
     <hyperlink ref="E42" r:id="rId14" xr:uid="{A98FE401-BD1C-4E91-8316-A9DCC000D0C4}"/>
     <hyperlink ref="E29" r:id="rId15" xr:uid="{24D22465-927A-4A5A-8A05-076327870C6B}"/>
     <hyperlink ref="E44" r:id="rId16" xr:uid="{A027D5B4-A9AA-4B17-B8E8-3CD21FC2BD15}"/>
+    <hyperlink ref="E45" r:id="rId17" xr:uid="{B590D9D3-7B7B-49E1-9C3A-3D1EE0C2E18A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A8345F9D327D24195D78E318AC9C1A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="26360ac618f5a03bb07bb00cf872c205">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="39b5f093-aaf4-4677-bcef-8ae7cfaa66f6" xmlns:ns3="2fee19ff-85f7-4b29-8c2d-0474c338ec23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ba858322d462cc2e1f1b6d22aaf6986" ns2:_="" ns3:_="">
     <xsd:import namespace="39b5f093-aaf4-4677-bcef-8ae7cfaa66f6"/>
@@ -2035,6 +2066,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2045,11 +2082,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44AABAD7-1DD5-4D4B-882F-2655B1BFEDE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19241F3B-4FFA-4AC5-979A-1E8E322F8AD5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19241F3B-4FFA-4AC5-979A-1E8E322F8AD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44AABAD7-1DD5-4D4B-882F-2655B1BFEDE1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
